--- a/datamining/final_data/tfidf1980_nltk.xlsx
+++ b/datamining/final_data/tfidf1980_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GS40"/>
+  <dimension ref="A1:FQ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,990 +447,850 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>editorial</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ses</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>synectics</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>today</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>80s</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>academy</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>educating</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>gifted-talented</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>mentor</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>program</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>gifted-children</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>identify</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sanderlin</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>teach</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>them</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>counseling</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>functional-model</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>androgyny</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>between</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>creativity</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>intelligence</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>moderated</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>relationship</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>threshold</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>individuals</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>reality</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>therapy</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>using</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>elementary-school</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>mathematics</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>boys</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>exceptionally</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>decision</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>generally</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>perceptual</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>specifically</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>speeds</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>logical</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>reasoning</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>teaching</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>piblication</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>writing</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>administrative</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>alternative</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>career-education</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>community-based</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>evaluation</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>talented</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>aptitudes</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>music</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>very</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>young-children</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>advocacy</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>females</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>neglected</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>family</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>intellectually</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>profiles</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>identifying</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>mexican-american</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>15-year</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>longitudinal-study</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>renzulli</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>right</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>artist</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>professional</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>able</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>american-college</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>aptitude-test</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>mathematically</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>natural-sciences</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>performance</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>readings</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>scholastic</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>tests</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>usage</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>youths</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>matters</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>practical</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>intervention</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>rationale</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>strategies</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>underachieving</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>continuing</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>faces</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>plight</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>underserved</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>1,593</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>high-school-students</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>profile</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>psycho-educational</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>authors</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>media</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>mixed</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>assessing</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>reading</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>warp</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>woof</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>differential</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>field</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>field-dependence</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>grades</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>high-achieving</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>independence</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>low-achieving</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>measures</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>placement</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>pupils</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>self-concept</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>attainment</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>eminence</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>experiences</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>positions</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>special</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>minority</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>quota</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>system</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>gcq</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>1990</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>gifted-child</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>movement</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>well</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>115</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>about</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>lessons</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>million</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>nation</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>overachievers</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>design</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>implementation</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>purdue</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>saturday</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>super</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>become</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>developmental</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>helping</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>stage</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>theory</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>use</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>future-directions</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>issues</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>characteristics</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>style</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>proposed</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>d4</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>ever-increasing</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>smpys</t>
         </is>
@@ -1447,22 +1307,22 @@
         <v>1300</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="E2" t="n">
         <v>0.37</v>
       </c>
       <c r="F2" t="n">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.12</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1954,90 +1814,6 @@
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2052,22 +1828,22 @@
         <v>1301</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.11</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.33</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="J3" t="n">
         <v>0.54</v>
@@ -2076,7 +1852,7 @@
         <v>0.54</v>
       </c>
       <c r="L3" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2559,90 +2335,6 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2681,31 +2373,31 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="M4" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="N4" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="O4" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="P4" t="n">
-        <v>0.15</v>
+        <v>0.43</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="R4" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -3164,90 +2856,6 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3262,7 +2870,7 @@
         <v>1303</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3304,43 +2912,43 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="U5" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="V5" t="n">
-        <v>0.19</v>
+        <v>0.43</v>
       </c>
       <c r="W5" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="X5" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -3769,90 +3377,6 @@
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3873,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -3903,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -3927,16 +3451,16 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -3948,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -4374,90 +3898,6 @@
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4472,7 +3912,7 @@
         <v>1305</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4520,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -4544,22 +3984,22 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -4571,34 +4011,34 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -4979,90 +4419,6 @@
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5083,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -5125,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -5167,19 +4523,19 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -5206,25 +4562,25 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
         <v>0</v>
@@ -5584,90 +4940,6 @@
         <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5685,13 +4957,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="F9" t="n">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -5718,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -5730,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5787,13 +5059,13 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -5832,13 +5104,13 @@
         <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -6189,90 +5461,6 @@
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6287,16 +5475,16 @@
         <v>1308</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -6353,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -6380,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -6401,10 +5589,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -6446,13 +5634,13 @@
         <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
@@ -6794,90 +5982,6 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6892,7 +5996,7 @@
         <v>1309</v>
       </c>
       <c r="D11" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6937,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -6946,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -7012,22 +6116,22 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AX11" t="n">
         <v>0</v>
@@ -7060,22 +6164,22 @@
         <v>0</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
@@ -7399,90 +6503,6 @@
         <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7503,10 +6523,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -7566,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -7575,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -7593,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
@@ -7635,13 +6655,13 @@
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="BA12" t="n">
         <v>0</v>
@@ -7683,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="BQ12" t="n">
         <v>0</v>
@@ -8004,90 +7024,6 @@
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8102,10 +7038,10 @@
         <v>1311</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E13" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -8138,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8249,10 +7185,10 @@
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="BC13" t="n">
         <v>0</v>
@@ -8297,10 +7233,10 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
@@ -8609,90 +7545,6 @@
         <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8707,16 +7559,16 @@
         <v>1312</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -8743,19 +7595,19 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -8776,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -8788,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -8797,16 +7649,16 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -8860,25 +7712,25 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="BJ14" t="n">
         <v>0</v>
@@ -8908,28 +7760,28 @@
         <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
         <v>0</v>
@@ -9214,90 +8066,6 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9360,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -9402,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
@@ -9486,16 +8254,16 @@
         <v>0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -9537,19 +8305,19 @@
         <v>0</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -9819,90 +8587,6 @@
         <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9923,10 +8607,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -9953,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9965,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -10103,13 +8787,13 @@
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="BP16" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="BQ16" t="n">
         <v>0</v>
@@ -10157,13 +8841,13 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="CI16" t="n">
         <v>0</v>
@@ -10424,90 +9108,6 @@
         <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10591,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -10618,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
@@ -10693,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -10717,13 +9317,13 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BR17" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BT17" t="n">
         <v>0</v>
@@ -10744,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CA17" t="n">
         <v>0</v>
@@ -10771,13 +9371,13 @@
         <v>0</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -11029,90 +9629,6 @@
         <v>0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11133,10 +9649,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G18" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -11196,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -11223,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -11331,10 +9847,10 @@
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="BU18" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="BV18" t="n">
         <v>0</v>
@@ -11385,10 +9901,10 @@
         <v>0</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="CN18" t="n">
         <v>0</v>
@@ -11634,90 +10150,6 @@
         <v>0</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11738,10 +10170,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G19" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -11801,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -11813,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -11828,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
@@ -11942,10 +10374,10 @@
         <v>0</v>
       </c>
       <c r="BV19" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="BW19" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="BX19" t="n">
         <v>0</v>
@@ -11996,10 +10428,10 @@
         <v>0</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="CP19" t="n">
         <v>0</v>
@@ -12239,90 +10671,6 @@
         <v>0</v>
       </c>
       <c r="FQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12553,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="BX20" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BY20" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BZ20" t="n">
         <v>0</v>
@@ -12607,13 +10955,13 @@
         <v>0</v>
       </c>
       <c r="CP20" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CS20" t="n">
         <v>0</v>
@@ -12844,90 +11192,6 @@
         <v>0</v>
       </c>
       <c r="FQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12948,10 +11212,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -12978,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -12990,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -13023,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -13164,13 +11428,13 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="CA21" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="CB21" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="CC21" t="n">
         <v>0</v>
@@ -13221,13 +11485,13 @@
         <v>0</v>
       </c>
       <c r="CS21" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="CV21" t="n">
         <v>0</v>
@@ -13449,90 +11713,6 @@
         <v>0</v>
       </c>
       <c r="FQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13547,7 +11727,7 @@
         <v>1320</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -13595,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -13628,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -13637,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
@@ -13655,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AO22" t="n">
         <v>0</v>
@@ -13700,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="BD22" t="n">
         <v>0</v>
@@ -13778,49 +11958,49 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CD22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CE22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CF22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CG22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CH22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CI22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CJ22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CK22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CL22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CM22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CN22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CO22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CP22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CQ22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CR22" t="n">
         <v>0</v>
@@ -13835,52 +12015,52 @@
         <v>0</v>
       </c>
       <c r="CV22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CW22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CX22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CY22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DA22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DB22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DC22" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="DD22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DE22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DG22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DH22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DJ22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DK22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DL22" t="n">
         <v>0</v>
@@ -14054,90 +12234,6 @@
         <v>0</v>
       </c>
       <c r="FQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14152,10 +12248,10 @@
         <v>1321</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -14428,10 +12524,10 @@
         <v>0</v>
       </c>
       <c r="CR23" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="CS23" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="CT23" t="n">
         <v>0</v>
@@ -14488,10 +12584,10 @@
         <v>0</v>
       </c>
       <c r="DL23" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="DM23" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="DN23" t="n">
         <v>0</v>
@@ -14659,90 +12755,6 @@
         <v>0</v>
       </c>
       <c r="FQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14757,7 +12769,7 @@
         <v>1322</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -14802,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -14811,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -14904,7 +12916,7 @@
         <v>0</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BB24" t="n">
         <v>0</v>
@@ -15039,16 +13051,16 @@
         <v>0</v>
       </c>
       <c r="CT24" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="CU24" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="CV24" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="CW24" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="CX24" t="n">
         <v>0</v>
@@ -15099,16 +13111,16 @@
         <v>0</v>
       </c>
       <c r="DN24" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DO24" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DP24" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DQ24" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DR24" t="n">
         <v>0</v>
@@ -15264,90 +13276,6 @@
         <v>0</v>
       </c>
       <c r="FQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15410,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -15437,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -15452,7 +13380,7 @@
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
@@ -15473,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
         <v>0</v>
@@ -15560,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="BR25" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BS25" t="n">
         <v>0</v>
@@ -15614,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="CJ25" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CK25" t="n">
         <v>0</v>
@@ -15656,16 +13584,16 @@
         <v>0</v>
       </c>
       <c r="CX25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CY25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CZ25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DA25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DB25" t="n">
         <v>0</v>
@@ -15716,19 +13644,19 @@
         <v>0</v>
       </c>
       <c r="DR25" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="DS25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DT25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DU25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DV25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DW25" t="n">
         <v>0</v>
@@ -15869,90 +13797,6 @@
         <v>0</v>
       </c>
       <c r="FQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15973,10 +13817,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -16048,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -16057,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
@@ -16273,16 +14117,16 @@
         <v>0</v>
       </c>
       <c r="DB26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DC26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DD26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DE26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DF26" t="n">
         <v>0</v>
@@ -16336,16 +14180,16 @@
         <v>0</v>
       </c>
       <c r="DW26" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="DX26" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="DY26" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="DZ26" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="EA26" t="n">
         <v>0</v>
@@ -16474,90 +14318,6 @@
         <v>0</v>
       </c>
       <c r="FQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16572,7 +14332,7 @@
         <v>1325</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -16704,205 +14464,205 @@
         <v>0</v>
       </c>
       <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="DG27" t="n">
         <v>0.38</v>
       </c>
-      <c r="AW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG27" t="n">
-        <v>0</v>
-      </c>
       <c r="DH27" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="DI27" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="DJ27" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="DK27" t="n">
         <v>0</v>
@@ -16953,22 +14713,22 @@
         <v>0</v>
       </c>
       <c r="EA27" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="EB27" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EC27" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="ED27" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="EE27" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="EF27" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="EG27" t="n">
         <v>0</v>
@@ -17079,90 +14839,6 @@
         <v>0</v>
       </c>
       <c r="FQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17177,16 +14853,16 @@
         <v>1326</v>
       </c>
       <c r="D28" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -17216,16 +14892,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -17267,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -17327,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="BB28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BC28" t="n">
         <v>0</v>
@@ -17375,7 +15051,7 @@
         <v>0</v>
       </c>
       <c r="BR28" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BS28" t="n">
         <v>0</v>
@@ -17510,19 +15186,19 @@
         <v>0</v>
       </c>
       <c r="DK28" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DL28" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DM28" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DN28" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DO28" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DP28" t="n">
         <v>0</v>
@@ -17576,19 +15252,19 @@
         <v>0</v>
       </c>
       <c r="EG28" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="EH28" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="EI28" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="EJ28" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="EK28" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="EL28" t="n">
         <v>0</v>
@@ -17684,90 +15360,6 @@
         <v>0</v>
       </c>
       <c r="FQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17782,16 +15374,16 @@
         <v>1327</v>
       </c>
       <c r="D29" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -17857,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -17872,7 +15464,7 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
@@ -17893,7 +15485,7 @@
         <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AP29" t="n">
         <v>0</v>
@@ -17914,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
         <v>0</v>
@@ -18091,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="DC29" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="DD29" t="n">
         <v>0</v>
@@ -18130,37 +15722,37 @@
         <v>0</v>
       </c>
       <c r="DP29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DQ29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DR29" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="DS29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DT29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DU29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DV29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DW29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DX29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DY29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DZ29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EA29" t="n">
         <v>0</v>
@@ -18196,43 +15788,43 @@
         <v>0</v>
       </c>
       <c r="EL29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EM29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EN29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EO29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EP29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EQ29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="ER29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="ES29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="ET29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EU29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EV29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EW29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EX29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EY29" t="n">
         <v>0</v>
@@ -18289,90 +15881,6 @@
         <v>0</v>
       </c>
       <c r="FQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18387,7 +15895,7 @@
         <v>1328</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -18435,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -18468,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -18477,7 +15985,7 @@
         <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
@@ -18582,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="BQ30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BR30" t="n">
         <v>0</v>
@@ -18636,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="CI30" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CJ30" t="n">
         <v>0</v>
@@ -18768,22 +16276,22 @@
         <v>0</v>
       </c>
       <c r="EA30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="EB30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="EC30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="ED30" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="EE30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EF30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="EG30" t="n">
         <v>0</v>
@@ -18840,22 +16348,22 @@
         <v>0</v>
       </c>
       <c r="EY30" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="EZ30" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="FA30" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="FB30" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="FC30" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="FD30" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="FE30" t="n">
         <v>0</v>
@@ -18894,90 +16402,6 @@
         <v>0</v>
       </c>
       <c r="FQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18998,10 +16422,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -19028,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -19073,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -19391,19 +16815,19 @@
         <v>0</v>
       </c>
       <c r="EG31" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EH31" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EI31" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EJ31" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EK31" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EL31" t="n">
         <v>0</v>
@@ -19463,19 +16887,19 @@
         <v>0</v>
       </c>
       <c r="FE31" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="FF31" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="FG31" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="FH31" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="FI31" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="FJ31" t="n">
         <v>0</v>
@@ -19499,90 +16923,6 @@
         <v>0</v>
       </c>
       <c r="FQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19597,10 +16937,10 @@
         <v>1330</v>
       </c>
       <c r="D32" t="n">
-        <v>0.13</v>
+        <v>0.48</v>
       </c>
       <c r="E32" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -19672,7 +17012,7 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -19708,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AP32" t="n">
         <v>0</v>
@@ -20011,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="EL32" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="EM32" t="n">
         <v>0</v>
@@ -20083,10 +17423,10 @@
         <v>0</v>
       </c>
       <c r="FJ32" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="FK32" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="FL32" t="n">
         <v>0</v>
@@ -20104,90 +17444,6 @@
         <v>0</v>
       </c>
       <c r="FQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20202,7 +17458,7 @@
         <v>1331</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -20250,7 +17506,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -20334,7 +17590,7 @@
         <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
         <v>0</v>
@@ -20619,19 +17875,19 @@
         <v>0</v>
       </c>
       <c r="EM33" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EN33" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EO33" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EP33" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EQ33" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="ER33" t="n">
         <v>0</v>
@@ -20694,105 +17950,21 @@
         <v>0</v>
       </c>
       <c r="FL33" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="FM33" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="FN33" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="FO33" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="FP33" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="FQ33" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="FR33" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="FS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20807,7 +17979,7 @@
         <v>1332</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -20882,13 +18054,13 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -20897,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -20918,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP34" t="n">
         <v>0</v>
@@ -21191,7 +18363,7 @@
         <v>0</v>
       </c>
       <c r="EB34" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="EC34" t="n">
         <v>0</v>
@@ -21239,22 +18411,22 @@
         <v>0</v>
       </c>
       <c r="ER34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="ES34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="ET34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EU34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EV34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EW34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EX34" t="n">
         <v>0</v>
@@ -21314,90 +18486,6 @@
         <v>0</v>
       </c>
       <c r="FQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FT34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FU34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FV34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FW34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FX34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FY34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21412,7 +18500,7 @@
         <v>1333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -21448,10 +18536,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -21466,7 +18554,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -21502,7 +18590,7 @@
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
@@ -21805,7 +18893,7 @@
         <v>0</v>
       </c>
       <c r="EE35" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="EF35" t="n">
         <v>0</v>
@@ -21862,22 +18950,22 @@
         <v>0</v>
       </c>
       <c r="EX35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EY35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EZ35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FA35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FB35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FC35" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="FD35" t="n">
         <v>0</v>
@@ -21919,90 +19007,6 @@
         <v>0</v>
       </c>
       <c r="FQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ35" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GA35" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GB35" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GC35" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GD35" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="GE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22062,16 +19066,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="T36" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -22107,7 +19111,7 @@
         <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
         <v>0</v>
@@ -22149,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AW36" t="n">
         <v>0</v>
@@ -22482,25 +19486,25 @@
         <v>0</v>
       </c>
       <c r="FC36" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="FD36" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="FE36" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="FF36" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="FG36" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="FH36" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="FI36" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="FJ36" t="n">
         <v>0</v>
@@ -22524,90 +19528,6 @@
         <v>0</v>
       </c>
       <c r="FQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE36" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GF36" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GG36" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GH36" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GI36" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GJ36" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GK36" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22622,16 +19542,16 @@
         <v>1335</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.13</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.38</v>
-      </c>
       <c r="G37" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -22754,7 +19674,7 @@
         <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AW37" t="n">
         <v>0</v>
@@ -23108,10 +20028,10 @@
         <v>0</v>
       </c>
       <c r="FJ37" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="FK37" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="FL37" t="n">
         <v>0</v>
@@ -23129,90 +20049,6 @@
         <v>0</v>
       </c>
       <c r="FQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL37" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="GM37" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="GN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23233,10 +20069,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G38" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -23275,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -23296,7 +20132,7 @@
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AB38" t="n">
         <v>0</v>
@@ -23317,13 +20153,13 @@
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
         <v>0</v>
@@ -23548,7 +20384,7 @@
         <v>0</v>
       </c>
       <c r="DG38" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="DH38" t="n">
         <v>0</v>
@@ -23614,7 +20450,7 @@
         <v>0</v>
       </c>
       <c r="EC38" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="ED38" t="n">
         <v>0</v>
@@ -23719,10 +20555,10 @@
         <v>0</v>
       </c>
       <c r="FL38" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="FM38" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="FN38" t="n">
         <v>0</v>
@@ -23734,90 +20570,6 @@
         <v>0</v>
       </c>
       <c r="FQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN38" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="GO38" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="GP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23838,10 +20590,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -23868,16 +20620,16 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -23913,7 +20665,7 @@
         <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
         <v>0</v>
@@ -23937,10 +20689,10 @@
         <v>0</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AO39" t="n">
         <v>0</v>
@@ -23982,10 +20734,10 @@
         <v>0</v>
       </c>
       <c r="BB39" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BC39" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BD39" t="n">
         <v>0</v>
@@ -24000,7 +20752,7 @@
         <v>0</v>
       </c>
       <c r="BH39" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BI39" t="n">
         <v>0</v>
@@ -24051,7 +20803,7 @@
         <v>0</v>
       </c>
       <c r="BY39" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BZ39" t="n">
         <v>0</v>
@@ -24330,7 +21082,7 @@
         <v>0</v>
       </c>
       <c r="FN39" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="FO39" t="n">
         <v>0</v>
@@ -24339,90 +21091,6 @@
         <v>0</v>
       </c>
       <c r="FQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP39" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="GQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24938,96 +21606,12 @@
         <v>0</v>
       </c>
       <c r="FO40" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="FP40" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="FQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ40" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="GR40" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="GS40" t="n">
         <v>0.58</v>
       </c>
     </row>
